--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NoMatchORenewal_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/NoMatchORenewal_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>VIN</t>
   </si>
@@ -195,6 +195,45 @@
   </si>
   <si>
     <t>SEDAN</t>
+  </si>
+  <si>
+    <t>SED</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>SYMBOL_2017</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>BI055</t>
+  </si>
+  <si>
+    <t>PD030</t>
+  </si>
+  <si>
+    <t>UM054</t>
+  </si>
+  <si>
+    <t>MP054</t>
+  </si>
+  <si>
+    <t>BI002</t>
+  </si>
+  <si>
+    <t>PD002</t>
+  </si>
+  <si>
+    <t>UM002</t>
+  </si>
+  <si>
+    <t>MP002</t>
   </si>
 </sst>
 </file>
@@ -552,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,57 +747,51 @@
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>39</v>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O2" s="3">
         <v>3</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>214</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="S2" s="3">
         <v>2</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="3">
-        <v>2</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="V2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="Z2" s="3">
@@ -767,29 +800,27 @@
       <c r="AA2" s="3">
         <v>15</v>
       </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AG2" s="3">
         <v>20000101</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -831,9 +862,7 @@
       <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="3">
-        <v>214</v>
-      </c>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
         <v>29</v>
       </c>
@@ -887,9 +916,240 @@
       </c>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="3">
+        <v>14890</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>61</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>20180319</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>61</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>20190611</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJhZDU3ZDYxOC03ZWI5LTQ4MzYtOTY1OS05MmUxYzk3ZDViMmIiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9IjBkZjlhOWJkLWZlYjEtNGIwMS05MjIyLTRlMWUzMWIxNDk4NCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjwvc2lzbD48VXNlck5hbWU+RU5UXGd3M2VyYWo8L1VzZXJOYW1lPjxEYXRlVGltZT4xLzMxLzIwMTkgODo0NDoxMiBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPkNvbmZpZGVudGlhbDwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="ad57d618-7eb9-4836-9659-92e1c97d5b2b" origin="userSelected">
+  <element uid="0df9a9bd-feb1-4b01-9222-4e1e31b14984" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767CB70B-B2EE-4BC6-8062-01B79C141789}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{628C7982-2D76-40BA-8F85-F6D151F3AE84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>